--- a/data/i18n.xlsx
+++ b/data/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -59,10 +59,19 @@
     <t>服务器异常</t>
   </si>
   <si>
+    <t>数据不存在</t>
+  </si>
+  <si>
+    <t>道具不足</t>
+  </si>
+  <si>
+    <t>金币不足</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
-    <t>道具不足</t>
+    <t>钻石不足</t>
   </si>
 </sst>
 </file>
@@ -1215,13 +1224,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="11.8166666666667" customWidth="1"/>
@@ -1276,15 +1285,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
         <v>2001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>2002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/i18n.xlsx
+++ b/data/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -68,10 +68,19 @@
     <t>金币不足</t>
   </si>
   <si>
+    <t>钻石不足</t>
+  </si>
+  <si>
+    <t>英雄等级不能超过主公等级</t>
+  </si>
+  <si>
+    <t>英雄等级不能超过阶段最大等级</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
-    <t>钻石不足</t>
+    <t>暂无须突破</t>
   </si>
 </sst>
 </file>
@@ -1224,16 +1233,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="11.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="76.5" customWidth="1"/>
     <col min="4" max="4" width="8.54166666666667" customWidth="1"/>
     <col min="5" max="5" width="38.8166666666667" customWidth="1"/>
     <col min="6" max="6" width="18.5416666666667" customWidth="1"/>
@@ -1309,15 +1318,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>2003</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>3001</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>3002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/i18n.xlsx
+++ b/data/i18n.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>数据不存在</t>
+  </si>
+  <si>
+    <t>请补全输入参数</t>
   </si>
   <si>
     <t>道具不足</t>
@@ -1233,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1304,7 +1307,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1328,7 +1331,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1336,21 +1339,29 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>3002</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
         <v>3003</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
